--- a/foletto_2nd_TCP/control_board_protocol_for_gen2.xlsx
+++ b/foletto_2nd_TCP/control_board_protocol_for_gen2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkg44\OneDrive\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkg44\OneDrive\문서\Arduino\arduino_codes\foletto_2nd_TCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F18410-2F22-41A5-956E-6CC53B0368BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2157FD-9EF9-45B8-8B10-BFB0882515BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2BD7440-B8F3-4546-AC05-FE52BFF6A026}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="201">
   <si>
     <t>{
     "ctrl": "sensor",
@@ -218,15 +218,6 @@
   </si>
   <si>
     <t>설정 할 센서값 list index 입력.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "id":   "&lt;board-id&gt;", 
-    "ctrl": "receive",
-    "cmd":  "ctrl",
-    "opt":  "cmd"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -940,6 +931,28 @@
     "ctrl":   "hbridge",
     "cmd":  "done"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 위치 확정 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id":   "&lt;board-id&gt;", 
+    "ctrl": "receive",
+    "cmd":  "ctrl",
+    "opt":  "cmd"
+}
+예외: 내부 스탭모터 드라이버 코루틴 작동시. Response value: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"done" 반복 작동 끝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1607,16 +1620,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1652,10 +1671,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1700,12 +1719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1739,16 +1752,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1829,32 +1842,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2172,392 +2185,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D6E314-C576-405B-BCF2-4BB7E2D6E101}">
   <dimension ref="A1:BQ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I79" workbookViewId="0">
-      <selection activeCell="Q95" sqref="Q95:T106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="O1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="O1" s="43" t="s">
+      <c r="P1" s="46"/>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="58"/>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="O2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="S2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="56"/>
-      <c r="E2" s="4" t="s">
+      <c r="T2" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+      <c r="AC2" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" s="51"/>
+      <c r="AQ2" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR2" s="51"/>
+      <c r="BE2" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" s="51"/>
+    </row>
+    <row r="3" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="59"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="60"/>
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="O2" s="45" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="52"/>
+      <c r="S3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="S2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AC2" s="49" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="44"/>
+      <c r="AC3" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AQ2" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="49"/>
-      <c r="BE2" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" s="49"/>
-    </row>
-    <row r="3" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="58"/>
-      <c r="E3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
-      <c r="S3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="40"/>
-      <c r="AC3" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AQ3" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BE3" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AQ3" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BE3" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="60"/>
       <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="F4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52"/>
       <c r="S4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="40"/>
-      <c r="AC4" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="55"/>
-      <c r="AQ4" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="55"/>
-      <c r="BE4" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="55"/>
+      <c r="T4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="44"/>
+      <c r="AC4" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="41"/>
+      <c r="AQ4" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="41"/>
+      <c r="BE4" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40"/>
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="41"/>
     </row>
     <row r="5" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="60"/>
       <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
+      <c r="F5" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
       <c r="S5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
-      <c r="AC5" s="70" t="s">
+      <c r="T5" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="57"/>
+      <c r="AC5" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="44"/>
+      <c r="AQ5" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="57"/>
+      <c r="BE5" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="56"/>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="57"/>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="60"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="AC6" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39" t="s">
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="40"/>
-      <c r="AQ5" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="42"/>
-      <c r="BE5" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="42"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="58"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
-      <c r="AC6" s="70" t="s">
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="44"/>
+    </row>
+    <row r="7" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="AC7" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39" t="s">
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="40"/>
-    </row>
-    <row r="7" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="60"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-      <c r="AC7" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="42"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="57"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="H9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="D10" s="69" t="s">
+      <c r="B10" s="58"/>
+      <c r="D10" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="72"/>
@@ -2577,8 +2590,8 @@
       </c>
     </row>
     <row r="11" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="70"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="D11" s="74"/>
       <c r="E11" s="75"/>
       <c r="F11" s="76"/>
@@ -2632,10 +2645,10 @@
         <v>6</v>
       </c>
       <c r="Y11" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z11" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA11" s="37" t="s">
         <v>8</v>
@@ -2645,8 +2658,8 @@
       </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="D12" s="74"/>
       <c r="E12" s="75"/>
       <c r="F12" s="76"/>
@@ -2655,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>12</v>
@@ -2665,8 +2678,8 @@
       </c>
     </row>
     <row r="13" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
       <c r="D13" s="74"/>
       <c r="E13" s="75"/>
       <c r="F13" s="76"/>
@@ -2675,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>15</v>
@@ -2684,16 +2697,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="74"/>
       <c r="E14" s="75"/>
       <c r="F14" s="76"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="33" x14ac:dyDescent="0.3">
@@ -2714,16 +2727,16 @@
         <v>21</v>
       </c>
       <c r="M15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="P15" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="49.5" x14ac:dyDescent="0.3">
@@ -2744,16 +2757,16 @@
         <v>25</v>
       </c>
       <c r="M16" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="O16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="P16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -2772,16 +2785,16 @@
         <v>28</v>
       </c>
       <c r="M17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="P17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2802,16 +2815,16 @@
         <v>32</v>
       </c>
       <c r="M18" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="O18" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="O18" s="22" t="s">
-        <v>194</v>
-      </c>
       <c r="P18" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2819,41 +2832,41 @@
         <v>33</v>
       </c>
       <c r="B22" s="80"/>
-      <c r="O22" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="61"/>
+      <c r="O22" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="56"/>
+      <c r="B23" s="58"/>
       <c r="D23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="O23" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="56"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
+      <c r="O23" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="58"/>
       <c r="T23" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U23" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" s="81"/>
       <c r="W23" s="81"/>
@@ -2865,525 +2878,525 @@
       <c r="AC23" s="82"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
       <c r="D24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="58"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="60"/>
       <c r="T24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="55"/>
+      <c r="U24" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="41"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
       <c r="D25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="58"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="60"/>
       <c r="T25" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="U25" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="40"/>
+      <c r="U25" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="44"/>
     </row>
     <row r="26" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
       <c r="D26" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="58"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="60"/>
       <c r="T26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="U26" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="42"/>
+      <c r="U26" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="57"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="58"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="60"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
     </row>
     <row r="28" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="58"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="60"/>
     </row>
     <row r="29" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O29" s="59"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="60"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="62"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="80"/>
+    </row>
+    <row r="32" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="80"/>
-    </row>
-    <row r="32" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52" t="s">
+      <c r="D32" s="54"/>
+      <c r="F32" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="Q32" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="F32" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="Q32" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="49"/>
       <c r="F33" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="55"/>
+        <v>44</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
       <c r="Q33" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="R33" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="55"/>
+        <v>44</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="41"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="50"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="52"/>
       <c r="F34" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="40"/>
+      <c r="G34" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
       <c r="Q34" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R34" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="40"/>
+      <c r="R34" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="44"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="50"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="52"/>
       <c r="F35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="40"/>
+      <c r="G35" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="44"/>
       <c r="Q35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R35" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="40"/>
+      <c r="R35" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="44"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="50"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="52"/>
       <c r="F36" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="40"/>
+      <c r="G36" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="44"/>
       <c r="Q36" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="84" t="s">
+      <c r="R36" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="44"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="52"/>
+      <c r="F37" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="44"/>
+      <c r="Q37" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="40"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="50"/>
-      <c r="F37" s="26" t="s">
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="44"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="52"/>
+      <c r="F38" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G38" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="40"/>
-      <c r="Q37" s="26" t="s">
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="44"/>
+      <c r="Q38" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="R37" s="84" t="s">
+      <c r="R38" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="40"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="50"/>
-      <c r="F38" s="26" t="s">
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="44"/>
+    </row>
+    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="59"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="52"/>
+      <c r="F39" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G39" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="40"/>
-      <c r="Q38" s="26" t="s">
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="57"/>
+      <c r="Q39" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="R38" s="84" t="s">
+      <c r="R39" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="44"/>
+    </row>
+    <row r="40" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="52"/>
+      <c r="Q40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="40"/>
-    </row>
-    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="57"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="50"/>
-      <c r="F39" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="42"/>
-      <c r="Q39" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="R39" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="40"/>
-    </row>
-    <row r="40" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="57"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="50"/>
-      <c r="Q40" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="R40" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="42"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="50"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="52"/>
       <c r="F41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+        <v>93</v>
+      </c>
+      <c r="J41" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
       <c r="N41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="53"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="55"/>
       <c r="F42" s="31">
         <v>1</v>
       </c>
       <c r="G42" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H42" s="88"/>
       <c r="J42" s="31">
         <v>1</v>
       </c>
       <c r="K42" s="87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L42" s="88"/>
       <c r="N42" s="31">
         <v>1</v>
       </c>
-      <c r="O42" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="55"/>
+      <c r="O42" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F43" s="32">
         <v>2</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43" s="90"/>
       <c r="J43" s="32">
         <v>2</v>
       </c>
       <c r="K43" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L43" s="90"/>
       <c r="N43" s="32">
         <v>2</v>
       </c>
-      <c r="O43" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="40"/>
+      <c r="O43" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="44"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F44" s="32">
         <v>3</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H44" s="90"/>
       <c r="J44" s="32">
@@ -3394,295 +3407,297 @@
       <c r="N44" s="32">
         <v>3</v>
       </c>
-      <c r="O44" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="40"/>
+      <c r="O44" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="44"/>
     </row>
     <row r="45" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F45" s="32">
         <v>4</v>
       </c>
       <c r="G45" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H45" s="90"/>
       <c r="J45" s="33">
         <v>4</v>
       </c>
       <c r="K45" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L45" s="92"/>
       <c r="N45" s="32">
         <v>4</v>
       </c>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="40"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="44"/>
     </row>
     <row r="46" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" s="34">
         <v>5</v>
       </c>
       <c r="G46" s="93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H46" s="94"/>
       <c r="N46" s="33">
         <v>5</v>
       </c>
-      <c r="O46" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="42"/>
+      <c r="O46" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="57"/>
     </row>
     <row r="47" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F47" s="33">
         <v>6</v>
       </c>
       <c r="G47" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H47" s="92"/>
     </row>
     <row r="49" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="80"/>
+      <c r="Q49" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="Q49" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A50" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
       <c r="F50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="41"/>
+      <c r="Q50" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="49"/>
+      <c r="V50" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W50" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="55"/>
-      <c r="Q50" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="47"/>
-      <c r="V50" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="W50" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="55"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="41"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
       <c r="F51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="40"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="50"/>
+      <c r="G51" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="44"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="52"/>
       <c r="V51" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="W51" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="40"/>
+        <v>125</v>
+      </c>
+      <c r="W51" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="44"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
       <c r="F52" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="40"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="50"/>
+      <c r="G52" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="44"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="52"/>
       <c r="V52" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W52" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="40"/>
+      <c r="W52" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="44"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
       <c r="F53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="40"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="50"/>
+      <c r="G53" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="44"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="52"/>
       <c r="V53" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="W53" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="40"/>
+      <c r="W53" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="43"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="44"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
       <c r="F54" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="40"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="50"/>
+        <v>115</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="44"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="52"/>
       <c r="V54" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="W54" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="40"/>
+      <c r="W54" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="44"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52"/>
       <c r="F55" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="40"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="50"/>
+        <v>116</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="44"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="52"/>
       <c r="V55" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="W55" s="95"/>
+        <v>126</v>
+      </c>
+      <c r="W55" s="95" t="s">
+        <v>198</v>
+      </c>
       <c r="X55" s="96"/>
       <c r="Y55" s="96"/>
       <c r="Z55" s="96"/>
@@ -3693,15 +3708,15 @@
       <c r="AE55" s="97"/>
     </row>
     <row r="56" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
       <c r="F56" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G56" s="101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H56" s="101"/>
       <c r="I56" s="101"/>
@@ -3711,14 +3726,16 @@
       <c r="M56" s="101"/>
       <c r="N56" s="101"/>
       <c r="O56" s="102"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="52"/>
       <c r="V56" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="W56" s="98"/>
+        <v>127</v>
+      </c>
+      <c r="W56" s="98" t="s">
+        <v>197</v>
+      </c>
       <c r="X56" s="99"/>
       <c r="Y56" s="99"/>
       <c r="Z56" s="99"/>
@@ -3729,301 +3746,303 @@
       <c r="AE56" s="100"/>
     </row>
     <row r="57" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
       <c r="F57" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="42"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="50"/>
+        <v>118</v>
+      </c>
+      <c r="G57" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="57"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="52"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="50"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="52"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="50"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="52"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="50"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="52"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="52"/>
     </row>
     <row r="61" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="51"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="53"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="55"/>
     </row>
     <row r="64" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="80"/>
-      <c r="Q64" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
+      <c r="Q64" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="104"/>
       <c r="C65" s="104"/>
       <c r="D65" s="105"/>
       <c r="F65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="41"/>
+      <c r="Q65" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="49"/>
+      <c r="V65" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W65" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="55"/>
-      <c r="Q65" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="47"/>
-      <c r="V65" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="W65" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="55"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="40"/>
+      <c r="AB65" s="40"/>
+      <c r="AC65" s="40"/>
+      <c r="AD65" s="40"/>
+      <c r="AE65" s="41"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="106"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="107"/>
       <c r="F66" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G66" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="40"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="50"/>
+      <c r="G66" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="44"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="52"/>
       <c r="V66" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="W66" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="39"/>
-      <c r="AB66" s="39"/>
-      <c r="AC66" s="39"/>
-      <c r="AD66" s="39"/>
-      <c r="AE66" s="40"/>
+        <v>125</v>
+      </c>
+      <c r="W66" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="43"/>
+      <c r="Z66" s="43"/>
+      <c r="AA66" s="43"/>
+      <c r="AB66" s="43"/>
+      <c r="AC66" s="43"/>
+      <c r="AD66" s="43"/>
+      <c r="AE66" s="44"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="106"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="107"/>
       <c r="F67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="40"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="50"/>
+      <c r="G67" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="44"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="52"/>
       <c r="V67" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W67" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="40"/>
+      <c r="W67" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="43"/>
+      <c r="AB67" s="43"/>
+      <c r="AC67" s="43"/>
+      <c r="AD67" s="43"/>
+      <c r="AE67" s="44"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="106"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="107"/>
       <c r="F68" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="40"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="50"/>
+      <c r="G68" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="44"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="52"/>
       <c r="V68" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="W68" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="40"/>
+      <c r="W68" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="43"/>
+      <c r="AB68" s="43"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="44"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="106"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="107"/>
       <c r="F69" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G69" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="40"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="44"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="52"/>
       <c r="V69" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="W69" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="40"/>
+      <c r="W69" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="44"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="106"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="107"/>
       <c r="F70" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="40"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="50"/>
+        <v>135</v>
+      </c>
+      <c r="G70" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="44"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="52"/>
       <c r="V70" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="W70" s="95"/>
+        <v>126</v>
+      </c>
+      <c r="W70" s="95" t="s">
+        <v>198</v>
+      </c>
       <c r="X70" s="96"/>
       <c r="Y70" s="96"/>
       <c r="Z70" s="96"/>
@@ -4035,14 +4054,14 @@
     </row>
     <row r="71" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="106"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="107"/>
       <c r="F71" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G71" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H71" s="101"/>
       <c r="I71" s="101"/>
@@ -4052,14 +4071,16 @@
       <c r="M71" s="101"/>
       <c r="N71" s="101"/>
       <c r="O71" s="102"/>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="50"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="52"/>
       <c r="V71" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="W71" s="98"/>
+        <v>127</v>
+      </c>
+      <c r="W71" s="98" t="s">
+        <v>197</v>
+      </c>
       <c r="X71" s="99"/>
       <c r="Y71" s="99"/>
       <c r="Z71" s="99"/>
@@ -4071,14 +4092,14 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="106"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
       <c r="D72" s="107"/>
       <c r="F72" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G72" s="111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H72" s="111"/>
       <c r="I72" s="111"/>
@@ -4088,931 +4109,1015 @@
       <c r="M72" s="111"/>
       <c r="N72" s="111"/>
       <c r="O72" s="112"/>
-      <c r="Q72" s="48"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="52"/>
     </row>
     <row r="73" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="106"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
       <c r="D73" s="107"/>
       <c r="F73" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="G73" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="42"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="50"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="57"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="52"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="106"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="107"/>
-      <c r="Q74" s="48"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="50"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="52"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="106"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="107"/>
-      <c r="Q75" s="48"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
-      <c r="T75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="52"/>
     </row>
     <row r="76" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="108"/>
       <c r="B76" s="109"/>
       <c r="C76" s="109"/>
       <c r="D76" s="110"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="53"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="55"/>
     </row>
     <row r="79" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
-      <c r="Q79" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="R79" s="61"/>
-      <c r="S79" s="61"/>
+      <c r="Q79" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A80" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="47"/>
+      <c r="A80" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="49"/>
       <c r="F80" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="55"/>
-      <c r="Q80" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="R80" s="113"/>
-      <c r="S80" s="113"/>
-      <c r="T80" s="114"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="48"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="50"/>
+      <c r="G80" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="41"/>
+      <c r="Q80" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="R80" s="114"/>
+      <c r="S80" s="114"/>
+      <c r="T80" s="115"/>
+      <c r="V80" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W80" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
+      <c r="AA80" s="40"/>
+      <c r="AB80" s="40"/>
+      <c r="AC80" s="40"/>
+      <c r="AD80" s="40"/>
+      <c r="AE80" s="41"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="52"/>
       <c r="F81" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G81" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="40"/>
-      <c r="Q81" s="115"/>
-      <c r="R81" s="116"/>
-      <c r="S81" s="116"/>
-      <c r="T81" s="117"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="50"/>
+      <c r="G81" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="44"/>
+      <c r="Q81" s="116"/>
+      <c r="R81" s="117"/>
+      <c r="S81" s="117"/>
+      <c r="T81" s="118"/>
+      <c r="V81" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="W81" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="43"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="43"/>
+      <c r="AD81" s="43"/>
+      <c r="AE81" s="44"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="52"/>
       <c r="F82" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="39" t="s">
+      <c r="G82" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="44"/>
+      <c r="Q82" s="116"/>
+      <c r="R82" s="117"/>
+      <c r="S82" s="117"/>
+      <c r="T82" s="118"/>
+      <c r="V82" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W82" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="X82" s="43"/>
+      <c r="Y82" s="43"/>
+      <c r="Z82" s="43"/>
+      <c r="AA82" s="43"/>
+      <c r="AB82" s="43"/>
+      <c r="AC82" s="43"/>
+      <c r="AD82" s="43"/>
+      <c r="AE82" s="44"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
+      <c r="F83" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="40"/>
-      <c r="Q82" s="115"/>
-      <c r="R82" s="116"/>
-      <c r="S82" s="116"/>
-      <c r="T82" s="117"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="48"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="50"/>
-      <c r="F83" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G83" s="39" t="s">
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="44"/>
+      <c r="Q83" s="116"/>
+      <c r="R83" s="117"/>
+      <c r="S83" s="117"/>
+      <c r="T83" s="118"/>
+    </row>
+    <row r="84" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
+      <c r="F84" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="40"/>
-      <c r="Q83" s="115"/>
-      <c r="R83" s="116"/>
-      <c r="S83" s="116"/>
-      <c r="T83" s="117"/>
-    </row>
-    <row r="84" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="48"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="50"/>
-      <c r="F84" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G84" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="42"/>
-      <c r="Q84" s="115"/>
-      <c r="R84" s="116"/>
-      <c r="S84" s="116"/>
-      <c r="T84" s="117"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="48"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="50"/>
-      <c r="Q85" s="115"/>
-      <c r="R85" s="116"/>
-      <c r="S85" s="116"/>
-      <c r="T85" s="117"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="48"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="50"/>
-      <c r="Q86" s="115"/>
-      <c r="R86" s="116"/>
-      <c r="S86" s="116"/>
-      <c r="T86" s="117"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="48"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="50"/>
-      <c r="Q87" s="115"/>
-      <c r="R87" s="116"/>
-      <c r="S87" s="116"/>
-      <c r="T87" s="117"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="48"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="50"/>
-      <c r="Q88" s="115"/>
-      <c r="R88" s="116"/>
-      <c r="S88" s="116"/>
-      <c r="T88" s="117"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="48"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="50"/>
-      <c r="Q89" s="115"/>
-      <c r="R89" s="116"/>
-      <c r="S89" s="116"/>
-      <c r="T89" s="117"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="48"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="50"/>
-      <c r="Q90" s="115"/>
-      <c r="R90" s="116"/>
-      <c r="S90" s="116"/>
-      <c r="T90" s="117"/>
-    </row>
-    <row r="91" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="51"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="53"/>
-      <c r="Q91" s="118"/>
-      <c r="R91" s="119"/>
-      <c r="S91" s="119"/>
-      <c r="T91" s="120"/>
-    </row>
-    <row r="94" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="57"/>
+      <c r="Q84" s="116"/>
+      <c r="R84" s="117"/>
+      <c r="S84" s="117"/>
+      <c r="T84" s="118"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52"/>
+      <c r="Q85" s="116"/>
+      <c r="R85" s="117"/>
+      <c r="S85" s="117"/>
+      <c r="T85" s="118"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A86" s="50"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="52"/>
+      <c r="Q86" s="116"/>
+      <c r="R86" s="117"/>
+      <c r="S86" s="117"/>
+      <c r="T86" s="118"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="52"/>
+      <c r="Q87" s="116"/>
+      <c r="R87" s="117"/>
+      <c r="S87" s="117"/>
+      <c r="T87" s="118"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A88" s="50"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52"/>
+      <c r="Q88" s="116"/>
+      <c r="R88" s="117"/>
+      <c r="S88" s="117"/>
+      <c r="T88" s="118"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
+      <c r="Q89" s="116"/>
+      <c r="R89" s="117"/>
+      <c r="S89" s="117"/>
+      <c r="T89" s="118"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+      <c r="Q90" s="116"/>
+      <c r="R90" s="117"/>
+      <c r="S90" s="117"/>
+      <c r="T90" s="118"/>
+    </row>
+    <row r="91" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="53"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="55"/>
+      <c r="Q91" s="119"/>
+      <c r="R91" s="120"/>
+      <c r="S91" s="120"/>
+      <c r="T91" s="121"/>
+    </row>
+    <row r="94" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" s="80"/>
       <c r="C94" s="80"/>
-      <c r="Q94" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="R94" s="61"/>
-      <c r="S94" s="61"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="56"/>
+      <c r="Q94" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="R94" s="63"/>
+      <c r="S94" s="63"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="58"/>
       <c r="F95" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G95" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="55"/>
-      <c r="Q95" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="R95" s="113"/>
-      <c r="S95" s="113"/>
-      <c r="T95" s="114"/>
-    </row>
-    <row r="96" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="57"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="58"/>
+      <c r="G95" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="41"/>
+      <c r="Q95" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="R95" s="114"/>
+      <c r="S95" s="114"/>
+      <c r="T95" s="115"/>
+      <c r="V95" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W95" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="X95" s="40"/>
+      <c r="Y95" s="40"/>
+      <c r="Z95" s="40"/>
+      <c r="AA95" s="40"/>
+      <c r="AB95" s="40"/>
+      <c r="AC95" s="40"/>
+      <c r="AD95" s="40"/>
+      <c r="AE95" s="41"/>
+    </row>
+    <row r="96" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="59"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="60"/>
       <c r="F96" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G96" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="42"/>
-      <c r="Q96" s="115"/>
-      <c r="R96" s="116"/>
-      <c r="S96" s="116"/>
-      <c r="T96" s="117"/>
+      <c r="G96" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="57"/>
+      <c r="Q96" s="116"/>
+      <c r="R96" s="117"/>
+      <c r="S96" s="117"/>
+      <c r="T96" s="118"/>
+      <c r="V96" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="W96" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43"/>
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="43"/>
+      <c r="AC96" s="43"/>
+      <c r="AD96" s="43"/>
+      <c r="AE96" s="44"/>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A97" s="57"/>
-      <c r="B97" s="63"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="58"/>
-      <c r="Q97" s="115"/>
-      <c r="R97" s="116"/>
-      <c r="S97" s="116"/>
-      <c r="T97" s="117"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="60"/>
+      <c r="Q97" s="116"/>
+      <c r="R97" s="117"/>
+      <c r="S97" s="117"/>
+      <c r="T97" s="118"/>
+      <c r="V97" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W97" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="X97" s="43"/>
+      <c r="Y97" s="43"/>
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="43"/>
+      <c r="AB97" s="43"/>
+      <c r="AC97" s="43"/>
+      <c r="AD97" s="43"/>
+      <c r="AE97" s="44"/>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="58"/>
-      <c r="Q98" s="115"/>
-      <c r="R98" s="116"/>
-      <c r="S98" s="116"/>
-      <c r="T98" s="117"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="60"/>
+      <c r="Q98" s="116"/>
+      <c r="R98" s="117"/>
+      <c r="S98" s="117"/>
+      <c r="T98" s="118"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="58"/>
-      <c r="Q99" s="115"/>
-      <c r="R99" s="116"/>
-      <c r="S99" s="116"/>
-      <c r="T99" s="117"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="60"/>
+      <c r="Q99" s="116"/>
+      <c r="R99" s="117"/>
+      <c r="S99" s="117"/>
+      <c r="T99" s="118"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="58"/>
-      <c r="Q100" s="115"/>
-      <c r="R100" s="116"/>
-      <c r="S100" s="116"/>
-      <c r="T100" s="117"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="60"/>
+      <c r="Q100" s="116"/>
+      <c r="R100" s="117"/>
+      <c r="S100" s="117"/>
+      <c r="T100" s="118"/>
     </row>
     <row r="101" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="59"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="60"/>
-      <c r="Q101" s="115"/>
-      <c r="R101" s="116"/>
-      <c r="S101" s="116"/>
-      <c r="T101" s="117"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="62"/>
+      <c r="Q101" s="116"/>
+      <c r="R101" s="117"/>
+      <c r="S101" s="117"/>
+      <c r="T101" s="118"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q102" s="115"/>
-      <c r="R102" s="116"/>
-      <c r="S102" s="116"/>
-      <c r="T102" s="117"/>
+      <c r="Q102" s="116"/>
+      <c r="R102" s="117"/>
+      <c r="S102" s="117"/>
+      <c r="T102" s="118"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q103" s="115"/>
-      <c r="R103" s="116"/>
-      <c r="S103" s="116"/>
-      <c r="T103" s="117"/>
+      <c r="Q103" s="116"/>
+      <c r="R103" s="117"/>
+      <c r="S103" s="117"/>
+      <c r="T103" s="118"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q104" s="115"/>
-      <c r="R104" s="116"/>
-      <c r="S104" s="116"/>
-      <c r="T104" s="117"/>
+      <c r="Q104" s="116"/>
+      <c r="R104" s="117"/>
+      <c r="S104" s="117"/>
+      <c r="T104" s="118"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q105" s="115"/>
-      <c r="R105" s="116"/>
-      <c r="S105" s="116"/>
-      <c r="T105" s="117"/>
+      <c r="Q105" s="116"/>
+      <c r="R105" s="117"/>
+      <c r="S105" s="117"/>
+      <c r="T105" s="118"/>
     </row>
     <row r="106" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q106" s="118"/>
-      <c r="R106" s="119"/>
-      <c r="S106" s="119"/>
-      <c r="T106" s="120"/>
+      <c r="Q106" s="119"/>
+      <c r="R106" s="120"/>
+      <c r="S106" s="120"/>
+      <c r="T106" s="121"/>
     </row>
     <row r="108" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108" s="80"/>
       <c r="C108" s="80"/>
       <c r="D108" s="80"/>
-      <c r="Q108" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="R108" s="61"/>
-      <c r="S108" s="61"/>
-      <c r="T108" s="61"/>
+      <c r="Q108" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="R108" s="63"/>
+      <c r="S108" s="63"/>
+      <c r="T108" s="63"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A109" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="47"/>
+      <c r="A109" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="49"/>
       <c r="F109" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G109" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="54"/>
-      <c r="O109" s="55"/>
-      <c r="Q109" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="R109" s="46"/>
-      <c r="S109" s="46"/>
-      <c r="T109" s="47"/>
+      <c r="G109" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="40"/>
+      <c r="O109" s="41"/>
+      <c r="Q109" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="R109" s="48"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="49"/>
       <c r="V109" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W109" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="X109" s="54"/>
-      <c r="Y109" s="54"/>
-      <c r="Z109" s="54"/>
-      <c r="AA109" s="54"/>
-      <c r="AB109" s="54"/>
-      <c r="AC109" s="54"/>
-      <c r="AD109" s="54"/>
-      <c r="AE109" s="55"/>
+        <v>43</v>
+      </c>
+      <c r="W109" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="X109" s="40"/>
+      <c r="Y109" s="40"/>
+      <c r="Z109" s="40"/>
+      <c r="AA109" s="40"/>
+      <c r="AB109" s="40"/>
+      <c r="AC109" s="40"/>
+      <c r="AD109" s="40"/>
+      <c r="AE109" s="41"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A110" s="48"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="50"/>
+      <c r="A110" s="50"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="52"/>
       <c r="F110" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G110" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="39"/>
-      <c r="K110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
-      <c r="N110" s="39"/>
-      <c r="O110" s="40"/>
-      <c r="Q110" s="48"/>
-      <c r="R110" s="49"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="50"/>
+      <c r="G110" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="44"/>
+      <c r="Q110" s="50"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="52"/>
       <c r="V110" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W110" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="X110" s="39"/>
-      <c r="Y110" s="39"/>
-      <c r="Z110" s="39"/>
-      <c r="AA110" s="39"/>
-      <c r="AB110" s="39"/>
-      <c r="AC110" s="39"/>
-      <c r="AD110" s="39"/>
-      <c r="AE110" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="W110" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="X110" s="43"/>
+      <c r="Y110" s="43"/>
+      <c r="Z110" s="43"/>
+      <c r="AA110" s="43"/>
+      <c r="AB110" s="43"/>
+      <c r="AC110" s="43"/>
+      <c r="AD110" s="43"/>
+      <c r="AE110" s="44"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A111" s="48"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="50"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="52"/>
       <c r="F111" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G111" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
-      <c r="N111" s="39"/>
-      <c r="O111" s="40"/>
-      <c r="Q111" s="48"/>
-      <c r="R111" s="49"/>
-      <c r="S111" s="49"/>
-      <c r="T111" s="50"/>
+      <c r="G111" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
+      <c r="O111" s="44"/>
+      <c r="Q111" s="50"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="52"/>
       <c r="V111" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W111" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="X111" s="39"/>
-      <c r="Y111" s="39"/>
-      <c r="Z111" s="39"/>
-      <c r="AA111" s="39"/>
-      <c r="AB111" s="39"/>
-      <c r="AC111" s="39"/>
-      <c r="AD111" s="39"/>
-      <c r="AE111" s="40"/>
+      <c r="W111" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="43"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="43"/>
+      <c r="AB111" s="43"/>
+      <c r="AC111" s="43"/>
+      <c r="AD111" s="43"/>
+      <c r="AE111" s="44"/>
     </row>
     <row r="112" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="48"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="50"/>
+      <c r="A112" s="50"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="52"/>
       <c r="F112" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G112" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="42"/>
-      <c r="Q112" s="48"/>
-      <c r="R112" s="49"/>
-      <c r="S112" s="49"/>
-      <c r="T112" s="50"/>
+      <c r="G112" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H112" s="56"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="57"/>
+      <c r="Q112" s="50"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
+      <c r="T112" s="52"/>
       <c r="V112" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="W112" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="X112" s="39"/>
-      <c r="Y112" s="39"/>
-      <c r="Z112" s="39"/>
-      <c r="AA112" s="39"/>
-      <c r="AB112" s="39"/>
-      <c r="AC112" s="39"/>
-      <c r="AD112" s="39"/>
-      <c r="AE112" s="40"/>
+      <c r="W112" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="X112" s="43"/>
+      <c r="Y112" s="43"/>
+      <c r="Z112" s="43"/>
+      <c r="AA112" s="43"/>
+      <c r="AB112" s="43"/>
+      <c r="AC112" s="43"/>
+      <c r="AD112" s="43"/>
+      <c r="AE112" s="44"/>
     </row>
     <row r="113" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="48"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="50"/>
-      <c r="Q113" s="48"/>
-      <c r="R113" s="49"/>
-      <c r="S113" s="49"/>
-      <c r="T113" s="50"/>
+      <c r="A113" s="50"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="52"/>
+      <c r="Q113" s="50"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="52"/>
       <c r="V113" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W113" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="X113" s="41"/>
-      <c r="Y113" s="41"/>
-      <c r="Z113" s="41"/>
-      <c r="AA113" s="41"/>
-      <c r="AB113" s="41"/>
-      <c r="AC113" s="41"/>
-      <c r="AD113" s="41"/>
-      <c r="AE113" s="42"/>
+      <c r="W113" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="X113" s="56"/>
+      <c r="Y113" s="56"/>
+      <c r="Z113" s="56"/>
+      <c r="AA113" s="56"/>
+      <c r="AB113" s="56"/>
+      <c r="AC113" s="56"/>
+      <c r="AD113" s="56"/>
+      <c r="AE113" s="57"/>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A114" s="48"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="50"/>
-      <c r="Q114" s="48"/>
-      <c r="R114" s="49"/>
-      <c r="S114" s="49"/>
-      <c r="T114" s="50"/>
+      <c r="A114" s="50"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="52"/>
+      <c r="Q114" s="50"/>
+      <c r="R114" s="51"/>
+      <c r="S114" s="51"/>
+      <c r="T114" s="52"/>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A115" s="48"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="50"/>
-      <c r="Q115" s="48"/>
-      <c r="R115" s="49"/>
-      <c r="S115" s="49"/>
-      <c r="T115" s="50"/>
+      <c r="A115" s="50"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="52"/>
+      <c r="Q115" s="50"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="52"/>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A116" s="48"/>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="50"/>
-      <c r="Q116" s="48"/>
-      <c r="R116" s="49"/>
-      <c r="S116" s="49"/>
-      <c r="T116" s="50"/>
+      <c r="A116" s="50"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="52"/>
+      <c r="Q116" s="50"/>
+      <c r="R116" s="51"/>
+      <c r="S116" s="51"/>
+      <c r="T116" s="52"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A117" s="48"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="50"/>
-      <c r="Q117" s="48"/>
-      <c r="R117" s="49"/>
-      <c r="S117" s="49"/>
-      <c r="T117" s="50"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="52"/>
+      <c r="Q117" s="50"/>
+      <c r="R117" s="51"/>
+      <c r="S117" s="51"/>
+      <c r="T117" s="52"/>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A118" s="48"/>
-      <c r="B118" s="49"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="50"/>
-      <c r="Q118" s="48"/>
-      <c r="R118" s="49"/>
-      <c r="S118" s="49"/>
-      <c r="T118" s="50"/>
+      <c r="A118" s="50"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="51"/>
+      <c r="D118" s="52"/>
+      <c r="Q118" s="50"/>
+      <c r="R118" s="51"/>
+      <c r="S118" s="51"/>
+      <c r="T118" s="52"/>
     </row>
     <row r="119" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="51"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="53"/>
-      <c r="Q119" s="51"/>
-      <c r="R119" s="52"/>
-      <c r="S119" s="52"/>
-      <c r="T119" s="53"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="55"/>
+      <c r="Q119" s="53"/>
+      <c r="R119" s="54"/>
+      <c r="S119" s="54"/>
+      <c r="T119" s="55"/>
     </row>
     <row r="122" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B122" s="80"/>
       <c r="C122" s="80"/>
       <c r="D122" s="80"/>
-      <c r="Q122" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="R122" s="61"/>
-      <c r="S122" s="61"/>
-      <c r="T122" s="61"/>
+      <c r="Q122" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="R122" s="63"/>
+      <c r="S122" s="63"/>
+      <c r="T122" s="63"/>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A123" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="47"/>
+      <c r="A123" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="49"/>
       <c r="F123" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G123" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="55"/>
-      <c r="Q123" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="R123" s="46"/>
-      <c r="S123" s="46"/>
-      <c r="T123" s="47"/>
+      <c r="G123" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="41"/>
+      <c r="Q123" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="R123" s="48"/>
+      <c r="S123" s="48"/>
+      <c r="T123" s="49"/>
       <c r="V123" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W123" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="X123" s="54"/>
-      <c r="Y123" s="54"/>
-      <c r="Z123" s="54"/>
-      <c r="AA123" s="54"/>
-      <c r="AB123" s="54"/>
-      <c r="AC123" s="54"/>
-      <c r="AD123" s="54"/>
-      <c r="AE123" s="55"/>
+        <v>43</v>
+      </c>
+      <c r="W123" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="X123" s="40"/>
+      <c r="Y123" s="40"/>
+      <c r="Z123" s="40"/>
+      <c r="AA123" s="40"/>
+      <c r="AB123" s="40"/>
+      <c r="AC123" s="40"/>
+      <c r="AD123" s="40"/>
+      <c r="AE123" s="41"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A124" s="48"/>
-      <c r="B124" s="49"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="50"/>
+      <c r="A124" s="50"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="52"/>
       <c r="F124" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G124" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
-      <c r="N124" s="39"/>
-      <c r="O124" s="40"/>
-      <c r="Q124" s="48"/>
-      <c r="R124" s="49"/>
-      <c r="S124" s="49"/>
-      <c r="T124" s="50"/>
+      <c r="G124" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
+      <c r="O124" s="44"/>
+      <c r="Q124" s="50"/>
+      <c r="R124" s="51"/>
+      <c r="S124" s="51"/>
+      <c r="T124" s="52"/>
       <c r="V124" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W124" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="X124" s="39"/>
-      <c r="Y124" s="39"/>
-      <c r="Z124" s="39"/>
-      <c r="AA124" s="39"/>
-      <c r="AB124" s="39"/>
-      <c r="AC124" s="39"/>
-      <c r="AD124" s="39"/>
-      <c r="AE124" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="W124" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="X124" s="43"/>
+      <c r="Y124" s="43"/>
+      <c r="Z124" s="43"/>
+      <c r="AA124" s="43"/>
+      <c r="AB124" s="43"/>
+      <c r="AC124" s="43"/>
+      <c r="AD124" s="43"/>
+      <c r="AE124" s="44"/>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A125" s="48"/>
-      <c r="B125" s="49"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="50"/>
+      <c r="A125" s="50"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="52"/>
       <c r="F125" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G125" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
-      <c r="N125" s="39"/>
-      <c r="O125" s="40"/>
-      <c r="Q125" s="48"/>
-      <c r="R125" s="49"/>
-      <c r="S125" s="49"/>
-      <c r="T125" s="50"/>
+      <c r="G125" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
+      <c r="O125" s="44"/>
+      <c r="Q125" s="50"/>
+      <c r="R125" s="51"/>
+      <c r="S125" s="51"/>
+      <c r="T125" s="52"/>
       <c r="V125" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W125" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="X125" s="39"/>
-      <c r="Y125" s="39"/>
-      <c r="Z125" s="39"/>
-      <c r="AA125" s="39"/>
-      <c r="AB125" s="39"/>
-      <c r="AC125" s="39"/>
-      <c r="AD125" s="39"/>
-      <c r="AE125" s="40"/>
+      <c r="W125" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="X125" s="43"/>
+      <c r="Y125" s="43"/>
+      <c r="Z125" s="43"/>
+      <c r="AA125" s="43"/>
+      <c r="AB125" s="43"/>
+      <c r="AC125" s="43"/>
+      <c r="AD125" s="43"/>
+      <c r="AE125" s="44"/>
     </row>
     <row r="126" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="48"/>
-      <c r="B126" s="49"/>
-      <c r="C126" s="49"/>
-      <c r="D126" s="50"/>
+      <c r="A126" s="50"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="52"/>
       <c r="F126" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G126" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="42"/>
-      <c r="Q126" s="48"/>
-      <c r="R126" s="49"/>
-      <c r="S126" s="49"/>
-      <c r="T126" s="50"/>
+      <c r="G126" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="H126" s="56"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="56"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="57"/>
+      <c r="Q126" s="50"/>
+      <c r="R126" s="51"/>
+      <c r="S126" s="51"/>
+      <c r="T126" s="52"/>
       <c r="V126" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="W126" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="X126" s="39"/>
-      <c r="Y126" s="39"/>
-      <c r="Z126" s="39"/>
-      <c r="AA126" s="39"/>
-      <c r="AB126" s="39"/>
-      <c r="AC126" s="39"/>
-      <c r="AD126" s="39"/>
-      <c r="AE126" s="40"/>
+      <c r="W126" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="X126" s="43"/>
+      <c r="Y126" s="43"/>
+      <c r="Z126" s="43"/>
+      <c r="AA126" s="43"/>
+      <c r="AB126" s="43"/>
+      <c r="AC126" s="43"/>
+      <c r="AD126" s="43"/>
+      <c r="AE126" s="44"/>
     </row>
     <row r="127" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="48"/>
-      <c r="B127" s="49"/>
-      <c r="C127" s="49"/>
-      <c r="D127" s="50"/>
-      <c r="Q127" s="48"/>
-      <c r="R127" s="49"/>
-      <c r="S127" s="49"/>
-      <c r="T127" s="50"/>
+      <c r="A127" s="50"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="52"/>
+      <c r="Q127" s="50"/>
+      <c r="R127" s="51"/>
+      <c r="S127" s="51"/>
+      <c r="T127" s="52"/>
       <c r="V127" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W127" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="X127" s="41"/>
-      <c r="Y127" s="41"/>
-      <c r="Z127" s="41"/>
-      <c r="AA127" s="41"/>
-      <c r="AB127" s="41"/>
-      <c r="AC127" s="41"/>
-      <c r="AD127" s="41"/>
-      <c r="AE127" s="42"/>
+      <c r="W127" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="X127" s="56"/>
+      <c r="Y127" s="56"/>
+      <c r="Z127" s="56"/>
+      <c r="AA127" s="56"/>
+      <c r="AB127" s="56"/>
+      <c r="AC127" s="56"/>
+      <c r="AD127" s="56"/>
+      <c r="AE127" s="57"/>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A128" s="48"/>
-      <c r="B128" s="49"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="50"/>
-      <c r="Q128" s="48"/>
-      <c r="R128" s="49"/>
-      <c r="S128" s="49"/>
-      <c r="T128" s="50"/>
+      <c r="A128" s="50"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="52"/>
+      <c r="Q128" s="50"/>
+      <c r="R128" s="51"/>
+      <c r="S128" s="51"/>
+      <c r="T128" s="52"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="48"/>
-      <c r="B129" s="49"/>
-      <c r="C129" s="49"/>
-      <c r="D129" s="50"/>
-      <c r="Q129" s="48"/>
-      <c r="R129" s="49"/>
-      <c r="S129" s="49"/>
-      <c r="T129" s="50"/>
+      <c r="A129" s="50"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="52"/>
+      <c r="Q129" s="50"/>
+      <c r="R129" s="51"/>
+      <c r="S129" s="51"/>
+      <c r="T129" s="52"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="48"/>
-      <c r="B130" s="49"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="50"/>
-      <c r="Q130" s="48"/>
-      <c r="R130" s="49"/>
-      <c r="S130" s="49"/>
-      <c r="T130" s="50"/>
+      <c r="A130" s="50"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="52"/>
+      <c r="Q130" s="50"/>
+      <c r="R130" s="51"/>
+      <c r="S130" s="51"/>
+      <c r="T130" s="52"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="48"/>
-      <c r="B131" s="49"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="50"/>
-      <c r="Q131" s="48"/>
-      <c r="R131" s="49"/>
-      <c r="S131" s="49"/>
-      <c r="T131" s="50"/>
+      <c r="A131" s="50"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="52"/>
+      <c r="Q131" s="50"/>
+      <c r="R131" s="51"/>
+      <c r="S131" s="51"/>
+      <c r="T131" s="52"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="48"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="50"/>
-      <c r="Q132" s="48"/>
-      <c r="R132" s="49"/>
-      <c r="S132" s="49"/>
-      <c r="T132" s="50"/>
+      <c r="A132" s="50"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="52"/>
+      <c r="Q132" s="50"/>
+      <c r="R132" s="51"/>
+      <c r="S132" s="51"/>
+      <c r="T132" s="52"/>
     </row>
     <row r="133" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="48"/>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="50"/>
-      <c r="Q133" s="51"/>
-      <c r="R133" s="52"/>
-      <c r="S133" s="52"/>
-      <c r="T133" s="53"/>
+      <c r="A133" s="50"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="52"/>
+      <c r="Q133" s="53"/>
+      <c r="R133" s="54"/>
+      <c r="S133" s="54"/>
+      <c r="T133" s="55"/>
     </row>
     <row r="134" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="51"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="53"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="178">
     <mergeCell ref="Q122:T122"/>
     <mergeCell ref="Q123:T133"/>
     <mergeCell ref="W123:AE123"/>
@@ -5109,6 +5214,12 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
+    <mergeCell ref="R38:AB38"/>
+    <mergeCell ref="R39:AB39"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="G33:O33"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:M5"/>
     <mergeCell ref="BE2:BF2"/>
     <mergeCell ref="BE3:BF3"/>
     <mergeCell ref="BG3:BQ3"/>
@@ -5123,22 +5234,6 @@
     <mergeCell ref="AS5:BC5"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="R40:AB40"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="G34:O34"/>
-    <mergeCell ref="G35:O35"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="AE3:AO3"/>
-    <mergeCell ref="AE4:AO4"/>
-    <mergeCell ref="AE5:AO5"/>
-    <mergeCell ref="AE6:AO6"/>
-    <mergeCell ref="AE7:AO7"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A33:B42"/>
     <mergeCell ref="C33:D42"/>
@@ -5158,19 +5253,11 @@
     <mergeCell ref="R34:AB34"/>
     <mergeCell ref="R35:AB35"/>
     <mergeCell ref="R36:AB36"/>
-    <mergeCell ref="R37:AB37"/>
-    <mergeCell ref="R38:AB38"/>
-    <mergeCell ref="R39:AB39"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:Q7"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="R40:AB40"/>
+    <mergeCell ref="G34:O34"/>
+    <mergeCell ref="G35:O35"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="G37:O37"/>
     <mergeCell ref="A23:B28"/>
     <mergeCell ref="E23:M23"/>
     <mergeCell ref="E24:M24"/>
@@ -5185,6 +5272,30 @@
     <mergeCell ref="A10:B13"/>
     <mergeCell ref="D10:F18"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="W80:AE80"/>
+    <mergeCell ref="W81:AE81"/>
+    <mergeCell ref="W82:AE82"/>
+    <mergeCell ref="W95:AE95"/>
+    <mergeCell ref="W96:AE96"/>
+    <mergeCell ref="W97:AE97"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:Q7"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AE3:AO3"/>
+    <mergeCell ref="AE4:AO4"/>
+    <mergeCell ref="AE5:AO5"/>
+    <mergeCell ref="AE6:AO6"/>
+    <mergeCell ref="AE7:AO7"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="R37:AB37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
